--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="exponential_sr_0.25" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="gaussian_sr_0.25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="inverse_sr_0.25" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="powerlaw_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="rational_quadratic_sr_0.25" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generalized_gaussian_sr_0.25" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sigmoid_sr_0.25" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85.40445851607713</v>
+        <v>86.19486327736399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3871266141766682</v>
+        <v>0.35972074700209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8540445851607712</v>
+        <v>0.86194863277364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8538389874250182</v>
+        <v>0.8635166815797206</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.2175883874428</v>
+        <v>79.50509952508239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4229437161237001</v>
+        <v>0.4970089878625004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.832175883874428</v>
+        <v>0.795050995250824</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8279878080427207</v>
+        <v>0.7851454502232211</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.57834410332269</v>
+        <v>87.37480428031384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3765438147975753</v>
+        <v>0.4168015216321995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8657834410332269</v>
+        <v>0.8737480428031384</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8627176817435644</v>
+        <v>0.8740824707826311</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>91.50459779063833</v>
+        <v>93.53982300884955</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2278188080193407</v>
+        <v>0.1778484810337735</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9150459779063833</v>
+        <v>0.9353982300884957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.914207817070874</v>
+        <v>0.9350060346035927</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.42611095251689</v>
+        <v>79.88823432728657</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5959874834632501</v>
+        <v>0.5329112869435145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7842611095251689</v>
+        <v>0.7988823432728657</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7822971759727892</v>
+        <v>0.7894264940938793</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.96234396491319</v>
+        <v>86.43154352546301</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4576799266738817</v>
+        <v>0.3517969698645175</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8696234396491318</v>
+        <v>0.8643154352546303</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8570616343466682</v>
+        <v>0.8625215623156854</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82.00728380003287</v>
+        <v>84.33697523334976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4456800478820999</v>
+        <v>0.4389250553639916</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8200728380003287</v>
+        <v>0.8433697523334978</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8206600455416426</v>
+        <v>0.8357151634328328</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.9859427849722</v>
+        <v>84.89692817411915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3664458750747144</v>
+        <v>0.4210653685110931</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8498594278497219</v>
+        <v>0.8489692817411916</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8482012667182884</v>
+        <v>0.845559886152176</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.56497893580395</v>
+        <v>82.06593482642583</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4634200797649101</v>
+        <v>0.4315756722198178</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8156497893580393</v>
+        <v>0.8206593482642583</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8077871437161346</v>
+        <v>0.8161706765411301</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.12996652220174</v>
+        <v>84.27728613569322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.416816986957565</v>
+        <v>0.4337287570194652</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8412996652220175</v>
+        <v>0.8427728613569322</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8390530695839603</v>
+        <v>0.8447340308400492</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76.1358662272165</v>
+        <v>82.03539823008849</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8438188486887762</v>
+        <v>0.6321870377636515</v>
       </c>
       <c r="D12" t="n">
-        <v>0.761358662272165</v>
+        <v>0.820353982300885</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7521163950050166</v>
+        <v>0.8191754842471543</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76.9420150693345</v>
+        <v>77.52402702445524</v>
       </c>
       <c r="C13" t="n">
-        <v>0.626460972117881</v>
+        <v>0.5852989055216312</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7694201506933451</v>
+        <v>0.7752402702445523</v>
       </c>
       <c r="E13" t="n">
-        <v>0.750767708565384</v>
+        <v>0.7706390147949109</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +704,13 @@
         <v>96.19469026548673</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1318239536456531</v>
+        <v>0.1241552827940419</v>
       </c>
       <c r="D14" t="n">
         <v>0.9619469026548673</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9615981744051616</v>
+        <v>0.9619615306208414</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.10324483775813</v>
+        <v>95.84070796460176</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1377507272709408</v>
+        <v>0.1082632751473284</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9510324483775812</v>
+        <v>0.9584070796460177</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9514602339310283</v>
+        <v>0.9590049936187179</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +739,1766 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>92.18998434242511</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2253108610859878</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9218998434242511</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9162105185272953</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.15308667606698</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3824398806510402</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8615308667606698</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8585913328249225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>80.41315236290971</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4957031946163625</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8041315236290971</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7963803444602673</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.83530134343724</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4607637966051698</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8083530134343724</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8025089820103656</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.57522123893804</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3929358272269989</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8557522123893806</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8547096875025476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.86152994403065</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2050641966498612</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9286152994403066</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.927993564186929</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75.08265642436353</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8716513162401194</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7508265642436353</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7235965035527698</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>83.50141437209665</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5325106246692788</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8350141437209665</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8263629468506644</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.93052708068409</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.566434855821232</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7893052708068409</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7834246542362457</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84.30747670827603</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3743874292587862</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8430747670827602</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8431171215882454</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.62849159594806</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3920750129657487</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8362849159594805</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8347346703849443</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.75221238938053</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3796069087538247</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8575221238938052</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8605573109016564</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.66978953105131</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.637193155909578</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.776697895310513</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7831031853664884</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.53165684824263</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5372313268172244</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7953165684824264</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7869309937217414</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.42772861356931</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1490644514894181</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9542772861356932</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9541606936548812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1226943422151332</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9583660253417635</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.047197640118</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1175398521443033</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9604719764011799</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9600429027009536</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.02307113383334</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4156570860922025</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8502307113383334</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8463993057640309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.66076696165192</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4098788405613353</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8466076696165192</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8454858327505068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.41233055649271</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8926987402761976</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.754123305564927</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7381314662904327</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>89.20353982300885</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2789675624497855</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8920353982300885</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8905169784843979</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>90.97448939869722</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2726385702940509</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9097448939869721</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9091189336786643</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.92848554053236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4317026951408479</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8292848554053235</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8238251091073361</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>87.22713864306785</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3522297184487495</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8722713864306785</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.86772377074808</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>80.02949852507375</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6000705809157807</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8002949852507374</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7965597566929116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.07686917706901</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3433705100770263</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.86076869177069</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8607526277463723</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.13655827472556</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3630714988180747</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8613655827472556</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8587168351286607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.98837360184777</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4106403824097167</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8598837360184778</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.861635575677553</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81.23893805309734</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6976292564043736</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8123893805309734</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8097571529717218</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>78.82213513957734</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.584046579982775</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7882213513957733</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.786087886662832</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>94.29095407399718</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1871283112782597</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9429095407399718</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9418631727854626</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.8731563421829</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09854885201381572</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9687315634218289</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9690763894623708</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.3362831858407</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1750202048659655</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.943362831858407</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9412781823743005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.27996781979085</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4065094869291169</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8627996781979081</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8600353113707736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81.14239742558327</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4570174976252019</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8114239742558327</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8098630556354557</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.25834998572653</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5912822578723232</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7525834998572651</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7476837554062887</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>82.24292597686831</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4992554924140374</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8224292597686832</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.815418071486393</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.96755162241888</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3076982050696339</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8896755162241888</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8866009869988869</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>78.1440150866357</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5865514356798183</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.781440150866357</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7628988255335896</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.57851711519996</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4608255697103839</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8657851711519996</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8522122010717705</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>74.39701035476085</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.711148881415526</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7439701035476085</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.729831980812331</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>81.30035726952656</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4649427021387965</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8130035726952656</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8091357500353208</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76.69962542928572</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.537413822642217</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7669962542928572</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7661992369704216</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.59309336585957</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4411446955986321</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8159309336585956</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8141505347057573</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.43380133046134</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6087515385142372</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7743380133046134</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7788525790731975</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>78.61702955907923</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5420615915209055</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7861702955907923</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7840059266275119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.25368731563421</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1393761376607775</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9625368731563422</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9622230864464478</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.30973451327434</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1230672353288658</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9530973451327434</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9536332373784653</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.98525073746313</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1404614549624967</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9498525073746313</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9489630682263126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>83.26155647251851</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4407332345435902</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8326155647251851</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8281114864272099</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.66961651917404</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2971035772701726</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8766961651917404</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8754429169980295</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.22019221619564</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3816533544100821</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8422019221619564</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8417927625766524</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>80.00510385037933</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5956977322231978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8000510385037932</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7956358002344932</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.9203539823009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1941659590539833</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.929203539823009</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9282938008334536</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.06541579079405</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4743230581128349</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8206541579079405</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8105885158968826</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.7523854012578</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4758632897554586</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8575238540125779</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8441944487325449</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.869670152856</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4190165179160735</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8386967015285599</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8362594183918018</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.93489563058503</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4222622998058796</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8393489563058504</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8377597330005709</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.46312684365782</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3267479323704417</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8746312684365781</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8723075972132538</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.83480825958702</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4712797308888791</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8383480825958702</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8343968073177386</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.33038348082596</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.661310280750331</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8233038348082596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8185451546294559</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.53392330383481</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4925627088019003</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8153392330383481</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8149122726234774</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.87020648967551</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1515522394426322</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9587020648967552</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9589038440902838</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.46017699115045</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1036376163946746</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9649081145018968</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.57227138643069</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.143863684693982</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9457227138643068</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9438077851933849</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.83350201991367</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3740693321260349</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8683350201991367</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8651832648155947</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.11399752593016</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5691062570083887</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7811399752593016</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7780722353498831</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.357269526553</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4665697883814574</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8035726952655299</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7976931197917541</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.80980804332218</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4270547655721505</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8380980804332218</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8371927588334935</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.2981081151221</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2104742930799451</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9129810811512209</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9117384920249026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>74.25297796693744</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7272361646801679</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7425297796693743</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7228525141763359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>82.26922378221265</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.576134242140688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8226922378221264</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8179295934941292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>77.93700637548768</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5368642791484792</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7793700637548768</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7782723999663416</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>77.22869574996324</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5832933098514331</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7722869574996324</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7672017230650263</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.60541181152087</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6160849472507834</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7560541181152086</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7312246518699931</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.41905206792447</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4946997177049828</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8241905206792446</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8212076998385882</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>78.76123495877991</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5939721114312608</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7876123495877991</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7900609506316872</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>77.55266049014264</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5970769682899117</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7755266049014266</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7704695062215647</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.143679901331537</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9572281594006874</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.3362831858407</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1431194618453446</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.943362831858407</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9437667382483141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>94.95575221238938</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1699706012320045</v>
+        <v>0.1563730321436499</v>
       </c>
       <c r="D16" t="n">
         <v>0.9495575221238937</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9470912847572821</v>
+        <v>0.9476655199205041</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +2508,366 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>85.6075456246738</v>
+        <v>82.97861284843871</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4046858970592641</v>
+        <v>0.456115949324012</v>
       </c>
       <c r="D17" t="n">
-        <v>0.856075456246738</v>
+        <v>0.8297861284843872</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8517897617883688</v>
+        <v>0.8248384041888802</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.02064896755162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3312871921186646</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8702064896755163</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8643734910391305</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.30469986764591</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4015239550266415</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.833046998676459</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8323810256069908</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.22817671433144</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3687005218739311</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8722817671433145</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8725682182793998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.92070000605541</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1820349539701662</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9292070000605541</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.928232850027895</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.13359112103046</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4948003386273437</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8313359112103047</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8174551447048446</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.62168357857767</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3966653660017376</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8662168357857766</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8552561381336176</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.63802455038538</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3985132824241494</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8563802455038539</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8536157426094452</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.69494545800569</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.347733549560265</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.856949454580057</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8564867498293797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.32760664019585</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4460152416567628</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8132760664019585</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8168769487431881</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.6637168141593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4172899449399362</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.856637168141593</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8587969848239194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.03834808259587</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5747119356494902</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8303834808259587</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8284668355268321</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.55769513577107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6019218747271224</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7955769513577107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7892540404021013</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.46017699115045</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1342289030599204</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.964143710334268</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.84365781710915</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1064863137422435</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9684365781710914</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9688497764588296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.89692817411915</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1560124784749253</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9489692817411916</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9476980221580291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.29003999457898</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.35719505679022</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8729003999457898</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8702970452451914</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="exponential_sr_0.25" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,21 +13,41 @@
     <sheet name="rational_quadratic_sr_0.25" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="generalized_gaussian_sr_0.25" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="sigmoid_sr_0.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="exponential_sr_0.5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="gaussian_sr_0.5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="inverse_sr_0.5" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="powerlaw_sr_0.5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="rational_quadratic_sr_0.5" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="generalized_gaussian_sr_0.5" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sigmoid_sr_0.5" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -43,12 +62,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -61,14 +95,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -433,6 +470,356 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.19486327736399</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.35972074700209</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86194863277364</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8635166815797206</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>79.50509952508239</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4970089878625004</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.795050995250824</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7851454502232211</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.37480428031384</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4168015216321995</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8737480428031384</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8740824707826311</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.53982300884955</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1778484810337735</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9353982300884957</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9350060346035927</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>79.88823432728657</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5329112869435145</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7988823432728657</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7894264940938793</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.43154352546301</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3517969698645175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8643154352546303</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8625215623156854</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.33697523334976</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4389250553639916</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8433697523334978</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8357151634328328</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>84.89692817411915</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4210653685110931</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8489692817411916</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.845559886152176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>82.06593482642583</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4315756722198178</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8206593482642583</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8161706765411301</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.27728613569322</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4337287570194652</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8427728613569322</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8447340308400492</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>82.03539823008849</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6321870377636515</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.820353982300885</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8191754842471543</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>77.52402702445524</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5852989055216312</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7752402702445523</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7706390147949109</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.19469026548673</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1241552827940419</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9619469026548673</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9619615306208414</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1082632751473284</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9590049936187179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.18998434242511</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2253108610859878</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9218998434242511</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9162105185272953</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.15308667606698</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3824398806510402</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8615308667606698</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8585913328249225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -440,27 +827,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Identifier</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>recall</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>f1_score</t>
         </is>
@@ -473,16 +860,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.19486327736399</v>
+        <v>92.77286135693215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.35972074700209</v>
+        <v>0.1800142637658913</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86194863277364</v>
+        <v>0.9277286135693215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8635166815797206</v>
+        <v>0.9255326582944111</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +879,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.50509952508239</v>
+        <v>90.08866858709851</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4970089878625004</v>
+        <v>0.2438572921930851</v>
       </c>
       <c r="D3" t="n">
-        <v>0.795050995250824</v>
+        <v>0.9008866858709851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7851454502232211</v>
+        <v>0.8982890639247347</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +898,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.37480428031384</v>
+        <v>94.42477876106196</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4168015216321995</v>
+        <v>0.1453769839269323</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8737480428031384</v>
+        <v>0.9442477876106194</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8740824707826311</v>
+        <v>0.9441660421029008</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +917,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.53982300884955</v>
+        <v>95.25073746312685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1778484810337735</v>
+        <v>0.1158699316029924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9353982300884957</v>
+        <v>0.9525073746312683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9350060346035927</v>
+        <v>0.9522879242159249</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +936,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79.88823432728657</v>
+        <v>82.71386430678466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5329112869435145</v>
+        <v>0.4281596688980547</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7988823432728657</v>
+        <v>0.8271386430678467</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7894264940938793</v>
+        <v>0.8174850085672066</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +955,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.43154352546301</v>
+        <v>91.44542772861357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3517969698645175</v>
+        <v>0.2636715440351206</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8643154352546303</v>
+        <v>0.9144542772861357</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8625215623156854</v>
+        <v>0.9081089326435803</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +974,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.33697523334976</v>
+        <v>87.99410029498526</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4389250553639916</v>
+        <v>0.3536486377512726</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8433697523334978</v>
+        <v>0.8799410029498524</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8357151634328328</v>
+        <v>0.8763875870978319</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +993,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.89692817411915</v>
+        <v>92.06489675516225</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4210653685110931</v>
+        <v>0.2014199923147923</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8489692817411916</v>
+        <v>0.9206489675516224</v>
       </c>
       <c r="E9" t="n">
-        <v>0.845559886152176</v>
+        <v>0.9132175575000228</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +1012,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>82.06593482642583</v>
+        <v>91.47492625368731</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4315756722198178</v>
+        <v>0.2244338239960295</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8206593482642583</v>
+        <v>0.9147492625368731</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8161706765411301</v>
+        <v>0.9115658374223103</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +1031,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.27728613569322</v>
+        <v>91.76991150442478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4337287570194652</v>
+        <v>0.2325700707056967</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8427728613569322</v>
+        <v>0.9176991150442477</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8447340308400492</v>
+        <v>0.9165365117321052</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +1050,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.03539823008849</v>
+        <v>85.19174041297934</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6321870377636515</v>
+        <v>0.6134875250388481</v>
       </c>
       <c r="D12" t="n">
-        <v>0.820353982300885</v>
+        <v>0.8519174041297936</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8191754842471543</v>
+        <v>0.8429771086669829</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +1069,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.52402702445524</v>
+        <v>84.80825958702064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5852989055216312</v>
+        <v>0.513115837611258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7752402702445523</v>
+        <v>0.8480825958702065</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7706390147949109</v>
+        <v>0.8357641607406643</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +1088,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.19469026548673</v>
+        <v>97.78761061946902</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1241552827940419</v>
+        <v>0.07299495437285562</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9619469026548673</v>
+        <v>0.9778761061946902</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9619615306208414</v>
+        <v>0.9778016548485378</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +1107,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.84070796460176</v>
+        <v>97.93510324483775</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1082632751473284</v>
+        <v>0.05263956367187651</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9584070796460177</v>
+        <v>0.9793510324483776</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9590049936187179</v>
+        <v>0.9795831971546415</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +1126,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.18998434242511</v>
+        <v>94.83775811209439</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2253108610859878</v>
+        <v>0.142118295371832</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9218998434242511</v>
+        <v>0.9483775811209438</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9162105185272953</v>
+        <v>0.9447708683769523</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +1145,1416 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.15308667606698</v>
+        <v>91.37070966588523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3824398806510402</v>
+        <v>0.2522252256837691</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8615308667606698</v>
+        <v>0.9137070966588523</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8585913328249225</v>
+        <v>0.9096316075525871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.12389380530973</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1919866965382729</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9212389380530974</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9196868325325557</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.32169828458724</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2786928270562688</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8832169828458725</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8799884637639769</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.3362831858407</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1562712168270082</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.943362831858407</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9414575948593955</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>94.57227138643069</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1431522441343986</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9457227138643068</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9455460723773825</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>80.08901461085304</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5482837262291771</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8008901461085303</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7861981968093003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.85545722713864</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.304480248503387</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9085545722713864</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8976251537139639</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.17699115044248</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2821073278668337</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9017699115044249</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9001438504254018</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.68436578171091</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1838309726031487</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9268436578171091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9258570718941452</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.3834808259587</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2469730337984705</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9038348082595871</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9020845245877164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.88495575221239</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2518384752086907</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9088495575221239</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9073774183013775</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.33923303834808</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5226616619004441</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8533923303834807</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8455021752984976</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.57227138643069</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5013583101797849</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8457227138643069</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8352954765792517</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>98.02359882005899</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0644074930382582</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.98023598820059</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9802251786238235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.78466076696165</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08223943017545328</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9678466076696164</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9685880186283242</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.92330383480825</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1931007499083232</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9392330383480825</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9363268148014008</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.87143199047281</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2634256275978613</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9087143199047281</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9047935228797676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.35988200589971</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1888638877393532</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9235988200589971</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9216258206723584</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.82439294457564</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2709681030469558</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8982439294457565</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8924863169573107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.5693215339233</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1642025117917001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.935693215339233</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9355889852205023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>94.66076696165192</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1431484521991176</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9466076696165192</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9459691325902264</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>77.84747272900285</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7615926357587645</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7784747272900285</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7581714978750853</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.47804911807195</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2224213664924415</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9247804911807196</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9201154449884174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.10914454277285</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.393903662689263</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8710914454277287</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8674757251006542</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1843142181033424</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9218289085545722</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9174851509550788</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.47197640117994</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2771575086730688</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9047197640117994</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.899767163270867</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.68731563421829</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1943746037102149</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9368731563421828</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.936840581340937</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5676358654042513</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8504424778761062</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8429800386929424</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.0117994100295</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5277212741639232</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.840117994100295</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8294031287320301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.58112094395281</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06787466051349232</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9758112094395279</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9758019610671365</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.93510324483776</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05887083375211356</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9793510324483776</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.979703965110802</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.42477876106196</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1619367219596825</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9442477876106194</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9408468854281333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.87921752494977</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2789990870665123</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9087921752494974</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9042841198668321</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.50737463126843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.189771858876217</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9250737463126842</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9228906035266939</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.82525800396198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2462420297801145</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8982525800396198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8960634222396517</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.89380530973452</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1595205976918805</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9389380530973451</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9386703805649013</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>94.27745914757048</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1539924035110744</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9427745914757049</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9427343374857239</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.80322494139223</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4420643033542244</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8280322494139222</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8197882672417427</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.29793510324484</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2295197958049054</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9129793510324484</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9105045404597585</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.07964601769912</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3425564043146248</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8707964601769911</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8704460887901547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.02949852507375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2644692628770523</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9002949852507374</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8972533415421573</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>91.03244837758112</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.247800069549703</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9103244837758112</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9059325114878259</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.21238938053098</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.211786372083346</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9221238938053098</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9203857216268896</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.13274336283186</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4996233873024418</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8513274336283185</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8432913267230588</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.45427728613569</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4495454251416959</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.844542772861357</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8376285766034309</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.81710914454277</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06908605145387506</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9781710914454278</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9781746569201442</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.90577773164128</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0628706031032228</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9790577773164127</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9793470085335081</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.00884955752213</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1876957117405254</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9300884955752213</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9250271778459904</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.88518643471544</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2504362851056602</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9088518643471541</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9058758641061088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.21238938053098</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2031956675877154</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9221238938053098</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.915276892374281</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.76418481128729</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2536726776410433</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8976418481128728</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8932305743603605</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.3362831858407</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1424373390482894</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.943362831858407</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.943070752344968</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.50737463126843</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1925118813946028</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9250737463126845</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9231413504128007</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.98525073746313</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4438518229052231</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8498525073746312</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8316538756789351</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.09144542772862</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2464834862670008</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9109144542772862</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9055037124874042</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.35103244837758</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2856881196697941</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8935103244837759</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8907612175983204</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.88790560471976</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2040390433656284</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9188790560471976</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9156348021297411</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.08571873459113</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2865301120279279</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8908571873459113</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8797988600365724</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.97935103244838</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1929730878005406</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9297935103244838</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.928245533568953</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.25073746312685</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5571298337563348</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8525073746312684</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8522314489337308</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.95575221238938</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4902748016698751</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8495575221238937</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8386950269627921</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.40412979351032</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08151208033826454</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9740412979351033</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9739496410244561</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.96460176991151</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05387743104945267</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9796460176991151</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9799307881061786</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.10133305651433</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1778589810692059</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9410133305651434</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9387396923411686</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.19183268598054</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.25413575770606</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9119183268598057</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9073242778907109</v>
       </c>
     </row>
   </sheetData>
@@ -787,7 +2574,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1137,7 +2924,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1487,7 +3274,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1837,7 +3624,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2187,7 +3974,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2537,30 +4324,380 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.02064896755162</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3312871921186646</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8702064896755163</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8643734910391305</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.30469986764591</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4015239550266415</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.833046998676459</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8323810256069908</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.22817671433144</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3687005218739311</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8722817671433145</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8725682182793998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.92070000605541</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1820349539701662</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9292070000605541</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.928232850027895</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.13359112103046</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4948003386273437</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8313359112103047</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8174551447048446</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.62168357857767</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3966653660017376</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8662168357857766</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8552561381336176</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.63802455038538</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3985132824241494</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8563802455038539</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8536157426094452</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.69494545800569</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.347733549560265</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.856949454580057</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8564867498293797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.32760664019585</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4460152416567628</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8132760664019585</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8168769487431881</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.6637168141593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4172899449399362</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.856637168141593</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8587969848239194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.03834808259587</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5747119356494902</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8303834808259587</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8284668355268321</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.55769513577107</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6019218747271224</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7955769513577107</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7892540404021013</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.46017699115045</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1342289030599204</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.964143710334268</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.84365781710915</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1064863137422435</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9684365781710914</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9688497764588296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.89692817411915</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1560124784749253</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9489692817411916</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9476980221580291</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.29003999457898</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.35719505679022</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8729003999457898</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8702970452451914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Identifier</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>recall</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>f1_score</t>
         </is>
@@ -2573,16 +4710,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.02064896755162</v>
+        <v>91.91740412979351</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3312871921186646</v>
+        <v>0.2117831089228275</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8702064896755163</v>
+        <v>0.9191740412979351</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8643734910391305</v>
+        <v>0.9170589123918651</v>
       </c>
     </row>
     <row r="3">
@@ -2592,16 +4729,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.30469986764591</v>
+        <v>89.02654867256636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4015239550266415</v>
+        <v>0.2807467096698625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.833046998676459</v>
+        <v>0.8902654867256636</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8323810256069908</v>
+        <v>0.8870409442197463</v>
       </c>
     </row>
     <row r="4">
@@ -2611,16 +4748,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.22817671433144</v>
+        <v>94.36578171091445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3687005218739311</v>
+        <v>0.148385200464448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8722817671433145</v>
+        <v>0.9436578171091445</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8725682182793998</v>
+        <v>0.9439739459322679</v>
       </c>
     </row>
     <row r="5">
@@ -2630,16 +4767,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.92070000605541</v>
+        <v>94.39528023598821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1820349539701662</v>
+        <v>0.1571014886315121</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9292070000605541</v>
+        <v>0.943952802359882</v>
       </c>
       <c r="E5" t="n">
-        <v>0.928232850027895</v>
+        <v>0.9426417731334059</v>
       </c>
     </row>
     <row r="6">
@@ -2649,16 +4786,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.13359112103046</v>
+        <v>84.72011003555394</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4948003386273437</v>
+        <v>0.4476452057328667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8313359112103047</v>
+        <v>0.8472011003555394</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8174551447048446</v>
+        <v>0.8350285470932806</v>
       </c>
     </row>
     <row r="7">
@@ -2668,16 +4805,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.62168357857767</v>
+        <v>89.67551622418878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3966653660017376</v>
+        <v>0.333721053925304</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8662168357857766</v>
+        <v>0.8967551622418879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8552561381336176</v>
+        <v>0.8849939573699445</v>
       </c>
     </row>
     <row r="8">
@@ -2687,16 +4824,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.63802455038538</v>
+        <v>90.8259587020649</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3985132824241494</v>
+        <v>0.2713711495550039</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8563802455038539</v>
+        <v>0.9082595870206489</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8536157426094452</v>
+        <v>0.9049552013250975</v>
       </c>
     </row>
     <row r="9">
@@ -2706,16 +4843,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85.69494545800569</v>
+        <v>91.23893805309734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.347733549560265</v>
+        <v>0.241404120465692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.856949454580057</v>
+        <v>0.9123893805309734</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8564867498293797</v>
+        <v>0.9116674167561112</v>
       </c>
     </row>
     <row r="10">
@@ -2725,16 +4862,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.32760664019585</v>
+        <v>91.26843657817111</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4460152416567628</v>
+        <v>0.2256455041225612</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8132760664019585</v>
+        <v>0.9126843657817109</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8168769487431881</v>
+        <v>0.9106829522512406</v>
       </c>
     </row>
     <row r="11">
@@ -2744,16 +4881,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.6637168141593</v>
+        <v>91.94690265486726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4172899449399362</v>
+        <v>0.2093503636198875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.856637168141593</v>
+        <v>0.9194690265486726</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8587969848239194</v>
+        <v>0.9169280493731689</v>
       </c>
     </row>
     <row r="12">
@@ -2763,16 +4900,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.03834808259587</v>
+        <v>85.01474926253687</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5747119356494902</v>
+        <v>0.5074802182146716</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8303834808259587</v>
+        <v>0.8501474926253687</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8284668355268321</v>
+        <v>0.8451789070224347</v>
       </c>
     </row>
     <row r="13">
@@ -2782,16 +4919,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.55769513577107</v>
+        <v>84.21828908554572</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6019218747271224</v>
+        <v>0.5195477759077524</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7955769513577107</v>
+        <v>0.8421828908554572</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7892540404021013</v>
+        <v>0.8310048033431494</v>
       </c>
     </row>
     <row r="14">
@@ -2801,16 +4938,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.46017699115045</v>
+        <v>97.66961651917404</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1342289030599204</v>
+        <v>0.07971775180528008</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9646017699115044</v>
+        <v>0.9766961651917404</v>
       </c>
       <c r="E14" t="n">
-        <v>0.964143710334268</v>
+        <v>0.9766358044551238</v>
       </c>
     </row>
     <row r="15">
@@ -2820,16 +4957,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.84365781710915</v>
+        <v>97.16814159292036</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1064863137422435</v>
+        <v>0.07491296713231652</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9684365781710914</v>
+        <v>0.9716814159292035</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9688497764588296</v>
+        <v>0.9721308417961504</v>
       </c>
     </row>
     <row r="16">
@@ -2839,16 +4976,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.89692817411915</v>
+        <v>93.1858407079646</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1560124784749253</v>
+        <v>0.1916469158860309</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9489692817411916</v>
+        <v>0.931858407079646</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9476980221580291</v>
+        <v>0.9264603099938096</v>
       </c>
     </row>
     <row r="17">
@@ -2858,16 +4995,366 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>87.29003999457898</v>
+        <v>91.10916761102317</v>
       </c>
       <c r="C17" t="n">
-        <v>0.35719505679022</v>
+        <v>0.2600306356037345</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8729003999457898</v>
+        <v>0.9110916761102316</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8702970452451914</v>
+        <v>0.9070921577637865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.35988200589971</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2677146911975191</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9235988200589971</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9161669986112593</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.82370089706657</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2628131607547403</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8982370089706657</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8900877103608785</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.86430678466077</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1537197285142611</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9386430678466077</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9396229864127026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.80530973451327</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1627692277723933</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9380530973451326</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9377474800138461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.1306585697108</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4070971903284468</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.841306585697108</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.830353097804632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.29793510324484</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2859320853633108</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9129793510324484</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9038036847597904</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.08554572271387</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2936857272996955</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8908554572271387</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8854459540461981</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.35988200589971</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2000236200282719</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9235988200589971</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9230756018903932</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.7669616519174</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2785864805162419</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9076696165191741</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9027296174829015</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.24188790560473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2038032641319054</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9224188790560472</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9209918804988384</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.95575221238938</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5583445643462861</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8495575221238939</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8423636149159334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.80825958702064</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4726170434412779</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8480825958702065</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8409821938190583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.81710914454277</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06659655471424533</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9781710914454278</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9781057650206169</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.64011799410029</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.056492784973157</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.976401179941003</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9768987248756851</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.48082595870207</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1879188112661116</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9348082595870206</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9306040461344562</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.22920901853246</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2572076623098576</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9122920901853245</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9079319571098129</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
@@ -21,6 +21,13 @@
     <sheet name="rational_quadratic_sr_0.75" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="generalized_gaussian_sr_0.75" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="sigmoid_sr_0.75" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="exponential_sr_0.5" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="gaussian_sr_0.5" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="inverse_sr_0.5" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="powerlaw_sr_0.5" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="rational_quadratic_sr_0.5" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="generalized_gaussian_sr_0.5" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="sigmoid_sr_0.5" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2532,6 +2539,1756 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.29793510324484</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.235437009644617</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9129793510324484</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9104576085566178</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.53149248695922</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2586052973808061</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9053149248695924</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9028781175730918</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.18879056047197</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1510995344565648</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9418879056047198</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9416181928440011</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>95.19174041297934</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1269707254187476</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9519174041297935</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9518117707222009</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>86.047197640118</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5155042789294384</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8604719764011799</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8432004573478146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.17994100294985</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2528520945168566</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9117994100294986</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9082876959182912</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.4424778761062</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2544443413615227</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9044247787610619</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.903681498938783</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.33038348082596</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1931169201081502</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9233038348082596</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9217148596668479</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.67568923606606</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2665869128788472</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8967568923606606</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8939313011554397</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.094395280236</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2471755790174939</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9209439528023597</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9205820841521384</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.36578171091446</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5222149221626751</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8436578171091446</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8425206109298353</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.71976401179941</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5989113439301339</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.847197640117994</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8267271855291727</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.46312684365782</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08134413501563055</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9746312684365781</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9745578997252347</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.22713864306785</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06832237491897786</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9722713864306785</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9728734659650933</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>92.44837758112094</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2110990155767165</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9244837758112094</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9203105091471324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.28028212470119</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2655789656878119</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.912802821247012</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9090102172114463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>93.1858407079646</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1746942890405383</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.931858407079646</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9289634793280964</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.20873017932681</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2664287796472005</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8920873017932681</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8869709304594349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.98230088495575</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1504490221897868</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9398230088495575</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9398279314789419</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>95.69321533923303</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1234743819120922</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9569321533923304</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9568848330220374</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.56637168141593</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4772224813806436</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8256637168141593</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8137427148053948</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.65191740412979</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2736986453256881</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9165191740412979</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9100802137603704</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.31563421828909</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3528288577334024</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.873156342182891</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8712842677143013</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.21238938053098</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1966806722517504</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9221238938053098</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9189339596941213</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.91445427728613</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2337407345114722</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9091445427728614</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9074789943101284</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.65191740412979</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2572937496763189</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9165191740412979</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9144291546440421</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.07374631268436</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5061645651874035</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8507374631268437</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8447934026186121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.10029498525074</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5178682993651212</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8410029498525073</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8303769912459591</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.84660766961652</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07541005123797125</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9784660766961653</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9783718484008797</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.43362831858408</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06574610721460962</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9743362831858408</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9749694838417959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.89380530973452</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1710227876004258</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9389380530973451</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9359259659947708</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.11539027154215</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.256181561618295</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9111539027154214</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9075356114212592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.59587020648968</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1728991857286019</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9259587020648968</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.924181891488681</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.58458983209198</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2852897881360453</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8858458983209196</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8827626693661438</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.71681415929204</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1598332577308611</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9371681415929203</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9376646442864374</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>95.22123893805311</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1314815420262372</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.952212389380531</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9518665092208847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.60176991150442</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4667147341814901</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8460176991150442</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8300659153321147</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.4424778761062</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2650827912836878</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9044247787610619</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8996593757733521</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.11209439528024</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3622557155962568</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8811209439528025</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.876294393604366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.30088495575221</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2022068516119665</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9230088495575222</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.922728099368808</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>91.50442477876106</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2424785812962606</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9150442477876106</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9099472879683507</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.27433628318585</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1948794948063247</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9327433628318584</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9326306564650542</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.536313459269392</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8504424778761063</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.846988583220555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.22123893805311</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.54069616519652</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8522123893805309</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8384337661769614</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.75811209439527</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.07493244040918702</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9775811209439528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9775526866382457</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.58112094395281</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05942869859698021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9758112094395279</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9763414418538481</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.0117994100295</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1615501823319695</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.940117994100295</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9365807113118528</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.33140136737053</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2570695258801187</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9133140136737053</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9095799088050437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>91.41592920353983</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2079806349950862</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9141592920353983</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.912713808123374</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.4698916080589</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2511160607284789</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8946989160805889</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8929459844379654</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.68731563421829</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1716346550999636</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9368731563421828</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9368383614402722</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.50737463126843</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2180104061602227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9250737463126842</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9237816408860663</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.12198202406594</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4709569736927127</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8112198202406595</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8036974088184629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>93.00884955752213</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1986727127116562</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9300884955752213</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9274417479235743</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>90.14749262536873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2692711463081651</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9014749262536872</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8985883688444062</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.79941002949853</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2287012752999242</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9179941002949853</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.911829789573899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.73746312684366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2578330546651462</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9073746312684365</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8999660493241836</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.15339233038348</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2695046071622831</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9215339233038348</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9208203142056568</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.3362831858407</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5385929678949954</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.843362831858407</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8360281247544886</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.86430678466077</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6058044333398963</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8386430678466077</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8228565166747035</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.78761061946902</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08008493967912121</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9778761061946902</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9777685619185664</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.67256637168141</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04160399334114118</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9867256637168141</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9868379389428125</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>95.19174041297936</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1394696499074295</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9519174041297935</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9509072792718947</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.06010720969326</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2632825007324149</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.910601072096933</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9068681263426883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.27138643067846</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1936454958551622</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9227138643067846</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9182607182102599</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.52819661069732</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2581407289302055</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8952819661069732</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8908336445730537</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.952802359882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1642334116467585</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9395280235988202</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9403267662963544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.09734513274336</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2151912411665459</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9309734513274336</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9259982785371939</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.47492625368731</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5428079249342166</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8147492625368731</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.800177972104706</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.1830638673345</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2336291322028653</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9218306386733449</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9173233366995854</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>88.20058997050147</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3409138850615515</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8820058997050146</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8808236377113362</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>93.68731563421829</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1623561152424372</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9368731563421828</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9360648310323704</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.97345132743362</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2392184236147538</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9097345132743364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9053265144003367</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.74041297935102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2408557419216474</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9174041297935103</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9164985288866567</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.6637168141593</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5928171788618783</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8566371681415929</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8471746168613083</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.07079646017699</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5704759254391926</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8407079646017699</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8274750568824301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.93510324483775</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0658058133649926</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9793510324483776</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9792938984573851</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.55162241887906</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05820906457397683</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9755162241887906</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9760087573797112</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.36578171091446</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1737036656948173</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9436578171091445</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9408195472483678</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.11310074769968</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2701335832340668</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9111310074769966</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9068270736854037</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2875,6 +4632,706 @@
       </c>
       <c r="E17" t="n">
         <v>0.9206272690809971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.94985250737463</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.1767231215567639</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9294985250737463</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9280252012111104</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.85076860526475</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2833060238617084</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8885076860526475</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8802477369827775</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.54277286135694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1603723942762978</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9454277286135693</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9450889973349128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>94.24778761061947</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1606612403964391</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9424778761061947</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9413628946287161</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.3362831858407</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4662397074498585</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.843362831858407</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8295446855980814</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.7405859912283</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1988635481422534</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.917405859912283</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9155950008295168</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89.05604719764013</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2832547837092231</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8905604719764012</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8900689001089347</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.7669616519174</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2361855092506933</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9076696165191741</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9019594733821197</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.20648967551622</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2954030557341563</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9020648967551622</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8921871525376674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>93.30383480825958</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2062307243868418</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9330383480825958</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9328052898954061</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.24483775811208</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5943340407010207</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.832448377581121</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.820162293970472</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.36283185840708</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.483678279526066</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8336283185840708</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8279783560176753</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.64011799410029</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06477378468128639</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.976401179941003</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9764246193568651</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.0796460176991</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.07825548254566381</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9707964601769911</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9715979576256188</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.42477876106196</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1401427392286829</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9442477876106194</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9414265519918379</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.05023976562659</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2552282956964637</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9105023976562658</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9062983407647809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>92.24188790560473</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2005091422746773</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9224188790560472</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.9199946181858962</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.87905604719764</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2838848520824589</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8887905604719764</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8851706417513425</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.36283185840708</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1615300637854186</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9336283185840708</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9349646751185997</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.56359484078583</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2318233636592746</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9156359484078582</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9121287073475518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.84070796460176</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4793848783680005</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8584070796460177</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8389071073188671</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.094395280236</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2262353853487487</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.92094395280236</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9166048706116816</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.52212389380531</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3209881206683349</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8752212389380531</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8730590466715779</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.47492625368731</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1996132255679186</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9147492625368731</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9143806634679075</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>91.20943952802359</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2352419864197145</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9120943952802361</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9098597932907875</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>92.18289085545723</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2159894306278147</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9218289085545722</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.917464580920124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.74926253687315</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5646053726338626</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8474926253687316</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8397716261382764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.21828908554572</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4833440371284571</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8421828908554572</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8411291063316284</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.99410029498526</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.06948246966330771</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9799410029498524</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9798816106926145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.67256637168143</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04630368417219491</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9867256637168141</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9868090966185893</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.62849159594806</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1963844629784035</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9362849159594806</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9329889515844672</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>91.04230428752267</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2610213650252391</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9104230428752267</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9068743397366605</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
@@ -63,6 +63,13 @@
     <sheet name="rational_quadratic_sr_0.15" sheetId="54" state="visible" r:id="rId54"/>
     <sheet name="generalized_gaussian_sr_0.15" sheetId="55" state="visible" r:id="rId55"/>
     <sheet name="sigmoid_sr_0.15" sheetId="56" state="visible" r:id="rId56"/>
+    <sheet name="exponential_sr_0.1" sheetId="57" state="visible" r:id="rId57"/>
+    <sheet name="gaussian_sr_0.1" sheetId="58" state="visible" r:id="rId58"/>
+    <sheet name="inverse_sr_0.1" sheetId="59" state="visible" r:id="rId59"/>
+    <sheet name="powerlaw_sr_0.1" sheetId="60" state="visible" r:id="rId60"/>
+    <sheet name="rational_quadratic_sr_0.1" sheetId="61" state="visible" r:id="rId61"/>
+    <sheet name="generalized_gaussian_sr_0.1" sheetId="62" state="visible" r:id="rId62"/>
+    <sheet name="sigmoid_sr_0.1" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18674,6 +18681,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>54.04916997551882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9978659903009733</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5404916997551882</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5346578989838319</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>55.85446240884437</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8808588554461798</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5585446240884437</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5449979022130547</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>56.88310452512565</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9365679174661636</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5688310452512565</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5666608535192607</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>53.28653362053306</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.020662345488866</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5328653362053305</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5340992590826203</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>59.97871953909636</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.011310455451409</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5997871953909636</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5695058677070333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>56.94175555151861</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.014782420794169</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5694175555151861</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5621931482459774</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>53.9408645403507</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.146144590775172</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.539408645403507</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5271965057655236</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44.94917776105329</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.109400734305382</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4494917776105329</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4368401689090627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>52.05711122068531</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0691033522288</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.520571112206853</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5001792749679451</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.8090035380929</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8780332018931707</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6080900353809289</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6045136208616885</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>52.84578586319951</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.091086189945539</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.528457858631995</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5155032104876559</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.59016946513378</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.010266155004501</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5359016946513379</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5245721906741635</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>73.4446664763536</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6448292369643847</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.734446664763536</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7299903083537378</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>73.18056384570801</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6349186172087988</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.73180563845708</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7247330860979424</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>69.04272528309068</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7941153424481551</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6904272528309068</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6751818521929324</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>58.05692090762031</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9493296937147776</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.580569209076203</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5700550098708287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>63.17796866754902</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9170837869246802</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6317796866754903</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6124494980466352</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>58.35301343437227</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9667813117305437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5835301343437227</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5791571389500694</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>61.24265780845855</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8779493018984794</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6124265780845854</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6087899290685368</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>59.2134880059516</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9504964580138525</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5921348800595161</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5942857648762996</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.1676831114456</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8734689648573598</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6416768311144561</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6342297366532643</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.76808622911962</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9646649976571402</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6076808622911962</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6008334155308802</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.56227995051861</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9447612166404724</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.595622799505186</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.589140921486644</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.98844280659868</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.045408796270688</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5398844280659867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5371772844401482</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.34489917732852</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9836248154441515</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6034489917732853</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5942266722590414</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68.18700853813615</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7171672408779461</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6818700853813614</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6804675163959716</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.99248263393282</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9373873730500538</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6099248263393282</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6093295650060125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.23833251152691</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9008727510770163</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6123833251152692</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6076135724408565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.17749288488655</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5746602167685826</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7817749288488656</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7768119806876876</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>74.58766944350729</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6358492637674014</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.745876694435073</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7455976102403272</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>74.4302286351958</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7044367824991544</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7443022863519581</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7376290564184333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.89544892256853</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8663075518318349</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6389544892256854</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6338493108333871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.44640524572011</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8587030881394944</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6444640524572012</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6429514021087985</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>58.82170260988416</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8699441338578859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5882170260988417</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5885562611784956</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>63.39449303194665</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7987575262784958</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6339449303194664</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6297125020157036</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.20762290331231</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9597068722049394</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6120762290331231</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.60594589896906</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.59215045112848</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9595243836442628</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6259215045112847</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5993297588337152</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.91073452192493</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9466836358110109</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6091073452192493</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.609028039126742</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>56.63846573067241</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9942272365093231</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5663846573067242</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5667760838201601</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.48783293973131</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.083328530192375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5348783293973132</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5240599033659356</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.66920994126247</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9506062890092531</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6066920994126247</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.593362519358517</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.83788787100234</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7116333524386088</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6983788787100235</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6967450411365141</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.46289327762351</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9603478108843169</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6046289327762351</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6048846645974555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.8250157873338</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9670954893032709</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6182501578733379</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6075284216099902</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>80.33988183288783</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5249079054842393</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8033988183288783</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8001414840539989</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.38464865613024</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6059118881821632</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7538464865613024</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7453620910996219</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>74.25565965103505</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7348816898340981</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7425565965103504</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7322798512092403</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>64.28497363010636</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8617506554515825</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6428497363010639</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.63644426149893</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -19017,6 +20074,1406 @@
       </c>
       <c r="E17" t="n">
         <v>0.9190052110299233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>55.31622245867179</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9904669940471649</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5531622245867178</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.545505439470497</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54.88481734271058</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8968333224455515</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5488481734271058</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.538131633070472</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>57.44842083409026</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8971321473519007</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5744842083409025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5638839796172611</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>51.5839237363645</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.044709589083989</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.515839237363645</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5134394265582461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.56939938926807</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8766149712105593</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6256939938926808</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6065615222885447</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58.47740897412607</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9704506610830625</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5847740897412608</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5794286393749183</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44.95436811737126</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.248597356677055</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4495436811737126</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4141251935311164</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>47.06736217441328</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.143371313810349</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4706736217441327</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4587023330546818</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48.04756096506025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.105029881993929</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4804756096506025</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4655603502000078</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>58.45638803103833</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9070186078548431</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5845638803103833</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.581815055157184</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.31967404562323</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.018874943256378</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5431967404562323</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5351970733835969</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>52.62087042275452</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.037744249900182</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5262087042275452</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5204272811514724</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>74.18212960319725</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6397773861885071</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7418212960319726</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7365489070011669</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>71.58850855111203</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6796954557299614</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7158850855111203</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7117047662810732</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>70.42759885466137</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7408353050549825</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7042759885466137</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.690999062337126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>57.46297690003086</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9464768123792276</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5746297690003085</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.564135377498491</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.23507123764047</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8437153771519661</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6423507123764046</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6368933046720845</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64.09432607548509</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7992288425564766</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6409432607548509</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6423736754994681</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>60.06738812619486</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9414389704664549</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6006738812619485</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5924347067330611</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>61.41670775698751</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9051578293244044</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6141670775698752</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6148900265783587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>64.03463697782853</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9249399110674859</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6403463697782852</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.619384500163359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>63.98065727212173</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.880901412665844</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6398065727212173</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6394152528124597</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>57.46961478905526</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.004490822553635</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5746961478905527</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5641245722533049</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>55.19217294267251</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.002120865384738</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5519217294267251</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5502859880886396</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.22084101073538</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.03914098739624</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5922084101073539</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5813515844668886</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.07369440912119</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7195338765780132</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6907369440912119</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6907633901951854</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>61.09014783864912</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.07172843615214</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6109014783864912</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6068153031204558</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.5331707021687</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8054779345790545</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6453317070216871</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6454195412960197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>82.92519831486432</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4380213933065534</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8292519831486432</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8290027916624577</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>76.53457209837455</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6001150225599606</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7653457209837455</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7634420205532536</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>72.99241342918191</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7495179294686143</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7299241342918192</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.7231117564690418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>65.12404086540542</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8483686407474387</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6512404086540541</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6466472276376025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>53.93757731468266</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.972675476471583</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5393757731468265</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5329088026152011</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>57.06632410314968</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8758803884188333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5706632410314969</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5630356819534947</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58.18155866400228</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8920847311615944</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5818155866400228</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5739405458192157</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>51.87890898710197</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.070206743478775</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5187890898710197</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5094570616286476</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.38874038702757</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.029600319763025</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5838874038702757</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5564797235331207</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>58.56607756122457</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9357369969288507</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5856607756122457</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5795834623397038</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50.08624642081679</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.157349581519763</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5008624642081678</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4767849422927222</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>45.9212449934688</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.128754395246506</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.459212449934688</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4510959077165989</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>48.30751131065148</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.159127311905225</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4830751131065147</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4670140682739075</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.81157276447028</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9241218919555347</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5781157276447029</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5737854253030299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>54.43507296775924</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.044891620675723</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5443507296775923</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5362796227779523</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>53.14976773155477</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.018630144000053</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5314976773155478</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5172313091743165</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>72.62061090493862</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6506576145688693</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7262061090493862</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.723010078030544</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>68.76478170226386</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7348798255125681</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6876478170226386</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6816638187244012</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>68.01477521431846</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.80777103677392</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6801477521431847</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6647572903817899</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>57.14205140182874</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9601578718920547</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5714205140182873</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.560468516037643</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>61.38236489935034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9142332370082539</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6138236489935034</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6119017630246805</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61.56558447737437</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.859388636549314</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6156558447737438</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6010804295633609</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>58.20846201091705</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9303929373621941</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5820846201091705</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5736053800519019</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>57.78890820854851</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.973394330839316</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5778890820854852</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5674057773132304</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>65.03447261654512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9087591913218299</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6503447261654512</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6241844185179765</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.01150528983815</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9700371151169142</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6001150528983815</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5934586252521438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>59.31989031046982</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.105716531723738</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5931989031046981</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.5713415168588994</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>53.07243142241715</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.079504645864169</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5307243142241715</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.5192777906956565</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>60.58642375799099</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9631394455830256</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6058642375799098</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5969467375973651</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>69.52482287909065</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7427735047414898</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6952482287909065</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6947305786254973</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>57.77731641277173</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.047480849424998</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5777731641277174</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5774286064262537</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>63.68307684322529</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8685208012660345</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6368307684322529</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6292401259054925</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77.95275045631882</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5697265105942885</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7795275045631882</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7779955916225753</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>75.26994178150331</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6343270294368267</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.752699417815033</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7514179785105812</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>76.48422564209032</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5880381671090921</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7648422564209033</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.761130549349863</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>63.84414513389677</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8770288622627656</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6384414513389678</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6300763912876985</v>
       </c>
     </row>
   </sheetData>

--- a/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
+++ b/results_cnn_subnetworks_evaluation/cnn_validation_SubRCM_pcc_by_advanced_fm_linear_rcm.xlsx
@@ -28,6 +28,27 @@
     <sheet name="rational_quadratic_sr_0.5" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="generalized_gaussian_sr_0.5" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="sigmoid_sr_0.5" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="exponential_sr_0.4" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="gaussian_sr_0.4" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="inverse_sr_0.4" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="powerlaw_sr_0.4" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="rational_quadratic_sr_0.4" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="generalized_gaussian_sr_0.4" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="sigmoid_sr_0.4" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="exponential_sr_0.3" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="gaussian_sr_0.3" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="inverse_sr_0.3" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="powerlaw_sr_0.3" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="rational_quadratic_sr_0.3" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="generalized_gaussian_sr_0.3" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sigmoid_sr_0.3" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="exponential_sr_0.25" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="gaussian_sr_0.25" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="inverse_sr_0.25" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="powerlaw_sr_0.25" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="rational_quadratic_sr_0.25" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="generalized_gaussian_sr_0.25" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="sigmoid_sr_0.25" sheetId="42" state="visible" r:id="rId42"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5339,6 +5360,2806 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.81710914454277</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3070875611515173</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8781710914454278</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8768733657080409</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>90.14783864912326</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2597309933800716</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9014783864912326</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9004179973175624</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.3362831858407</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1389040768423001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9433628318584072</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9427242669697715</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.12094395280236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2317572566581172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9112094395280236</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9093985586530788</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.83775811209441</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4338562105636811</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8483775811209439</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8406757126301562</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.02949852507375</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3080242029430034</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9002949852507374</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8945795582827412</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.57522123893804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4641112773950832</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8557522123893806</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8506360874552999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.61061946902655</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2894587928332233</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8761061946902655</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8781997414405005</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.40725265789497</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3061239201536713</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8840725265789496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8710102020618832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.7669616519174</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2817571183419204</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9076696165191741</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9078007850183806</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.01769911504425</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4827539669970672</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8601769911504424</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8518622010716157</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.1268436578171</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5104122624179581</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8312684365781712</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8142600928819134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.3716814159292</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1113845669543177</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.963716814159292</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9636474458613018</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.87020648967551</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09759388810816745</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9587020648967552</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9589386348877508</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.71681415929204</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1840852091940178</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9371681415929203</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9352585996462009</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.71684876166749</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2938027535956078</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.897168487616675</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8930855499924131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.69911504424779</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3079919657597202</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.876991150442478</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8750044808696436</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.61669218591857</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2647552914403301</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8961669218591857</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8958481840432849</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.8023598820059</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1797440654219827</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9280235988200591</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9283357616326059</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.094395280236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2160795797979517</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9209439528023597</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.920169609185072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.95870206489676</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4005263079336146</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8595870206489675</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8491165285257696</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.15339233038348</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2671445056446828</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9215339233038348</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9181523417911783</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.5693215339233</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5771071630724085</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.835693215339233</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8261892813340486</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.76106194690266</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2873134786146693</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8876106194690265</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.888126630119032</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.93805309734513</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2789503035698241</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8893805309734514</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8858791138870459</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.84365781710915</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3328307552903425</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8684365781710914</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8684470045227728</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.86725663716814</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.49649170760725</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8486725663716814</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8457990935052466</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.53687315634218</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5314075434987899</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8253687315634218</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8168941006016412</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.60766961651917</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1044673353117711</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9660766961651918</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.966008937200621</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.31858407079646</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05776625643278142</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9831858407079647</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9832908717413847</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.49262536873157</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07585711495806512</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9749262536873156</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9745819855806289</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.88398400216842</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.291895558290279</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8988398400216843</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8961229283026649</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>88.34808259587021</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2980897647095844</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8834808259587021</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8819827507983792</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.34825560774748</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.277716335398145</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8834825560774748</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8823790455138527</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.53982300884955</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1786360396906578</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9353982300884957</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9354100835488832</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.89085545722715</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2137652944745544</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9289085545722713</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9264058842471954</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.95870206489676</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3940767630459353</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8595870206489675</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8507774730552657</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.50737463126843</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.253285433522736</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9250737463126845</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9219578651946889</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.71681415929204</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5298073496591921</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8303035812528854</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.14749262536873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2446336284017889</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9014749262536872</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9018489298857251</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2675932705809828</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9003197715493604</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.75516224188792</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4070558057462524</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8675516224188791</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8659769567052116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.89675516224189</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5381962357013739</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8489675516224189</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8472244537489304</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.88790560471976</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4673316245025489</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8188790560471977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8177203064011778</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.55162241887906</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09171324422998925</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9755162241887906</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9754875204936063</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.34808259587021</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.04940527455540481</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9834808259587021</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.983528462606494</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.78778363134629</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.06797765677323089</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9778778363134629</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9777190675483522</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.17898078703102</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2852855813994919</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9017898078703104</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8999361435033338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.40117994100295</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3383531649596989</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8640117994100296</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8643458172433982</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.82005899705015</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2798939102174093</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8882005899705014</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8872056410590311</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.94985250737463</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.185408681006326</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9294985250737463</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9301632236288585</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.56342182890856</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2357808211488494</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9156342182890856</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9141388910649757</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.65781710914455</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4282815202973628</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8365781710914455</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8278522206813805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>91.79941002949852</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2296999813464936</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9179941002949853</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.915100788020246</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.30504589140044</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5714369190061309</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8330504589140044</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8233795942200672</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>87.72861356932154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2953827288312217</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8772861356932153</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8744652970088399</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.57851711519996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3539593473309651</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8657851711519996</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8629098096512304</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>89.79351032448378</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3067134306979521</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8979351032448377</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8960377612817647</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.95870206489676</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4892840839233638</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8595870206489675</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8512433086821272</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.06489675516224</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4967456193805749</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8206489675516224</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8062707610484197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.16814159292035</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09550934851370887</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9716814159292035</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9717093242943872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.17109144542772</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05170059106706807</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9817109144542773</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9818102633858741</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.34513274336283</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09181210169072074</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9734513274336283</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9732902635831095</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.55369279434368</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2966641499611898</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8955369279434368</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8919948643235808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.38053097345133</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2784092500514816</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8938053097345133</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.893617002537024</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.52576579382175</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3012952371306407</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8852576579382175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8760072851488715</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>94.27728613569322</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1643023572347981</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9427728613569322</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9429027016865803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.5693215339233</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1964307386851942</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.935693215339233</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9347563804034673</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.45427728613569</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3724231194481642</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.844542772861357</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.842299348738468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.56047197640119</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3174358630533486</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9056047197640119</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8972430447786903</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.60176991150442</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4602943090780173</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8460176991150442</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.838819162360258</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.61946902654867</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.236108294929727</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9061946902654867</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9060824188828539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>89.41002949852508</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.268856505251218</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8941002949852507</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8879937525669419</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>90.35398230088495</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2951409313900513</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9035398230088496</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9023649587551678</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.69616519174042</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4888023771476583</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8669616519174042</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.858567127087667</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>84.89675516224189</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4217072748714902</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8489675516224189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.844520494770628</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.0796460176991</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0945169736562093</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9707964601769911</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9706815153147191</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>97.905604719764</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06404651615939656</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9790560471976401</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9794203044818739</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>97.0796460176991</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09305499578404124</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9707964601769911</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9704851193515165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.62738143640226</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2701883162580958</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9062738143640227</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9030507077909818</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.96460176991151</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2862583496452619</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.879646017699115</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8798683697649829</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.95939411240582</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3380523843457922</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8595939411240583</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8592974483062312</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.03834808259587</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1732112449438621</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9303834808259588</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9299126501197448</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.62241887905604</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2412339566236673</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9162241887905604</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9138051430341012</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.45722713864306</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4186673886598631</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8545722713864305</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8472026794014031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.27138643067846</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2450199695240978</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9227138643067846</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9178118341917534</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.68731563421829</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5622455095134986</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8368731563421828</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8256214371157032</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.84955752212389</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2782355989116089</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.888495575221239</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8880277762672021</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.99410029498526</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3252850123137856</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8799410029498524</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8694914871623638</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.40117994100295</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3643637882196344</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8640117994100296</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8639560226133316</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.68748864609555</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5348833696809986</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8368748864609555</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.828968377594747</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.09144542772862</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5725087398042281</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8109144542772861</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7953296697669139</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>97.28613569321534</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09083476953928767</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9728613569321534</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9728084210979253</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>98.17109144542772</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06040634226801558</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9817109144542773</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9818459058291232</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.87488646095554</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.09696766073563291</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9687488646095554</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9684876892548869</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.3571051652696</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3058782723152823</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.893571051652696</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8894956607680276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.02654867256636</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2723430802669706</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8902654867256636</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8889907884415498</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>89.67568923606606</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.232034858991392</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8967568923606606</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.896801885016697</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>93.80530973451327</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1584209467565718</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9380530973451326</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9392255691092231</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.952802359882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1672798455256877</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9395280235988202</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9391273939636744</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.13274336283186</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3999034620152088</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8513274336283185</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8446718374123365</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.53097345132743</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2902694747822049</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9053097345132743</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8995379675687269</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.16519174041298</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.468637132763979</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8616519174041297</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8530624629520247</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.91445427728613</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2301024282831349</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9091445427728614</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9075872879670621</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.31858407079646</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3078102173128476</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8831858407079647</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8783947290389686</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>91.23893805309734</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2441723282514431</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9123893805309734</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.912073647775461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>86.28318584070796</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5015916857024422</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8628318584070798</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8596664227766405</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>85.16224188790559</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4622510009338535</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.851622418879056</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8472590322820681</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.51917404129793</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1210525860326015</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9651917404129794</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9651477713775745</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.31268436578171</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0969683404735406</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9631268436578171</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9634643270798506</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.63126843657817</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1546314074904937</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9463126843657816</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9451934060278422</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>90.51131930207008</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2738312530388248</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9051131930207009</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9026803019193134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.9882005899705</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3604491796422128</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8598820058997051</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.859429095954227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.23598820058996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4652946490328759</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8023598820058997</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7975883573554955</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.4424778761062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.23652170804174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9044247787610619</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9050405855870736</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.38643067846608</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2292197130038403</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9138643067846608</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9123472133181203</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.48377581120944</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5132186948379968</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8448377581120944</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8319784837122034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.56047197640117</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.314368553085175</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9056047197640119</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9007519068436013</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.86725663716814</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3949749750822472</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8486725663716814</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8449274887644964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.79056047197641</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2846907813451253</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.887905604719764</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8881906421161148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.84660766961652</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3145611203857698</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8784660766961652</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8721741850907355</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85.16224188790559</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4276319039442266</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8516224188790561</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8500717209838022</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.3952802359882</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5354881728019488</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.843952802359882</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8399743578393325</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.18289085545723</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4743561073749636</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8218289085545722</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8115287619316975</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.9297225754548</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1433484508937302</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.959297225754548</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9591603320249049</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.047197640118</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1083520897589248</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9604719764011799</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9610647397598271</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.15929203539824</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1699214566942828</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9415929203539823</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.940412634978237</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.16522634278843</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3314931703950039</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8816522634278845</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8783093670839913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5682,6 +8503,3506 @@
       </c>
       <c r="E17" t="n">
         <v>0.9237281935887431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.10324483775811</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.359932126935261</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8510324483775811</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8453810117849212</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.89970501474926</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3693147484135504</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8589970501474926</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8510363929613056</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.25958702064898</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3173776662442833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8825958702064897</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8794288363898637</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.24257995311379</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2050149915364424</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9224257995311378</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9222526727661527</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.8023598820059</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4763141680702877</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.828023598820059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8199495609540168</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.14749262536873</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2831592991550376</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9014749262536874</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8998621398570771</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.64601769911505</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7294930056203157</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7964601769911505</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7760442185384265</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.40117994100295</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3177471504391481</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8640117994100296</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8654833720829961</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.49262536873157</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3252270878680671</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8749262536873157</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8669998085995791</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.92625368731564</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.51056007113948</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8492625368731563</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8431342772350966</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.952802359882</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6070869824538628</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8395280235988201</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8339285031223757</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.98230088495575</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4398917509010062</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8398230088495575</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8380769263602736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.3716814159292</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1256268920458751</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.963716814159292</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9635901239973397</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.10619469026548</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1132585526391267</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9610619469026549</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9612415365317941</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.54277286135694</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1880737852999421</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9454277286135693</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9432334734881513</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.85845321614663</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3578718852507791</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8785845321614664</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8739761903112914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3409042354828368</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8587020648967553</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8586379195072406</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.89970501474927</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3319253305225478</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8589970501474926</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8551792755252283</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.52507374631269</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2942190568118046</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8852507374631269</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8851866460429182</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.50737463126845</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2110868152193385</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9250737463126845</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9244363439396324</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.57556726269259</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3853595451490643</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8557556726269258</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8538044179132361</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3550090391994066</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8923512781324566</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.44837758112094</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5493089868997535</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8244837758112095</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8163126219156712</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>88.43657817109144</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2844631035152513</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8843657817109145</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8844327651662418</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.64306784660768</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2959740040590987</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8864306784660767</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8853882964562967</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.24778761061947</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4833102153332827</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8424778761061947</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8425790289645508</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.5726174101852</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5674002513386465</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.845726174101852</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8450676332778961</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.42182890855457</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4256285949610173</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8342182890855458</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8304838181648504</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.46017699115045</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1239055890589952</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9646017699115044</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9644626252778841</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.81120943952803</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.109669858525164</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9581120943952802</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9587231670281083</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.3362831858407</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1630596408695662</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.943362831858407</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9408416212256185</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.45039028595983</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3280816177963849</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8845039028595981</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8825258305691887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.2745092950631</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4145077691491072</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.832745092950631</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.831463807841474</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.86760266092267</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3617768647459646</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8486760266092267</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8467911430661582</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.28318584070796</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3331624110694975</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8628318584070798</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8625886009954369</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.76418481128729</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2759434025654627</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8976418481128728</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8948616483394483</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.56637168141593</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4784246513425994</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8256637168141593</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8160740374244302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.26253687315634</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3341861011344008</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8926253687315635</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8867437049450636</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.08554572271387</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5895809889926265</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7908554572271387</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7853777810588232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.31268436578171</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.359590078141385</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8631268436578171</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8631427003640854</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>85.43049680360556</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3632322029521068</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8543049680360557</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8528252778624552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>81.97657419181827</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5119161869050004</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8197657419181826</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8184712467986259</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>81.68176195295807</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5498336235177703</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8168176195295807</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8126322626696399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.12111696467963</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4691999541750799</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8112111696467963</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8087122110150998</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.72271386430678</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1494166382507198</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9572271386430679</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9569484196990421</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.19398091678993</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1662050402820266</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9419398091678994</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9418618143305547</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.54277286135694</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1503628047318974</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9454277286135693</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9443648112700893</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.40573592043761</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3671559145303763</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.864057359204376</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8615239645120284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.3716814159292</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3212555965990759</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8637168141592919</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8624968486039721</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>84.3362831858407</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3613946831203066</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.843362831858407</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8401798133417208</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.88495575221239</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2385696504594913</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9088495575221239</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9083133624684804</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.74041297935102</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2487676746225891</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9174041297935103</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9129484831051077</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>84.42477876106196</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4091527723683005</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8442477876106194</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8410594547086905</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.70796460176992</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2966242388337074</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9070796460176991</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9038678545508393</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.28318584070796</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3906945450697094</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8628318584070798</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8591398804747232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>90.35398230088495</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2495098840629604</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9035398230088496</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9039316408468782</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.05309734513274</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2984932125778869</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8805309734513275</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8791732498995877</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.89675516224189</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4842278667803233</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8489675516224189</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8466388394033423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.72271386430678</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5966365303325195</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8572271386430679</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8469238918783848</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.03539823008849</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4763237903127447</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.820353982300885</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8207875120360534</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.69616519174042</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1175453995166511</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9669616519174042</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9668521494225178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.87020648967551</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1089200131539049</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9587020648967552</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.959186737081828</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.59882005899705</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2202556237316458</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9359882005899705</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9334606988562545</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.79842674532939</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3212247654361212</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8879842674532941</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8856640277785588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.27728613569322</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4144783552076358</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8427728613569322</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8397650398519094</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.65781710914455</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3852917979859437</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8365781710914455</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8296058605891217</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.49262536873157</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3196999014005996</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8749262536873157</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8756447385080948</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.24188790560473</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2208451697219667</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9224188790560472</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9209058920810461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.3642159534252</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4394451120713104</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.833642159534252</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8277034403439802</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.58424380833745</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3064007698519465</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8858424380833745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8832547338580312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>81.35693215339234</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.458625280096506</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8135693215339233</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8147551968112093</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>85.6047197640118</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.343502118983694</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8560471976401181</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8550922676784938</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.51917404129793</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3329366468514006</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8651917404129794</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.86314346356552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.12979351032449</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5955138128765005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8412979351032448</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8290842995753464</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.06784660766962</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.552083778588955</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8306784660766962</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8289653878085271</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>81.29793510324484</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4842325760982931</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8129793510324484</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8071288166331827</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.45722713864306</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1552282465117363</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9545722713864307</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9535687142096269</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.98525073746313</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1399049081517054</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9498525073746313</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9500136673172304</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.83480825958702</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.164223044947236</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9383480825958703</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9362396994058502</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.05811757310472</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.354160767956362</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8705811757310473</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8676580812158114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>87.9646017699115</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3082652453643581</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.879646017699115</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8792186312532791</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>85.04424778761062</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3613122019412306</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8504424778761062</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8447436163040022</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>90.94395280235989</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2426527312316466</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9094395280235987</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.908996843664409</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>91.29793510324484</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2557716478101307</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9129793510324484</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9097162626324311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.28040900007787</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4343481529310035</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8528040900007786</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8420579777304873</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.11799410029498</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3087140557385283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9011799410029498</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8963884780678324</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>85.78171091445428</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3848916528183811</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8578171091445428</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.854215405480773</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>89.82300884955752</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.288880795543082</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8982300884955752</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8975843685789737</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.96755162241888</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3205239168717526</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8896755162241888</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8868323040867804</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>87.16814159292036</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4219058205004937</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8716814159292035</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8717537388551981</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.87020648967551</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5469489044548633</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.858702064896755</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.852715299566903</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.45132743362832</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4594691571081057</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8345132743362832</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8332689976837351</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.57817109144543</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1264536093348094</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9657817109144542</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9656374091048168</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.4306784660767</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.108097381571694</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9643067846607669</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9642994331658699</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.42495177293921</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1654580201373998</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9442495177293921</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9429480793331475</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>89.27632591977439</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3155795528904985</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.892763259197744</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8900251230339092</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>84.83775811209441</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3476086211468404</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8483775811209441</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8485502737928711</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81.68141592920354</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4507617573273214</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8168141592920353</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8153460354410633</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>83.53108590904766</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4268100793473423</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8353108590904765</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8358876556859582</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.67551622418878</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3017085851853759</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8967551622418879</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8931023489353613</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>85.75619166255764</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.37718718010874</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8575619166255762</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8548022649627562</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>88.87905604719764</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3173430073230217</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8887905604719764</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8844946445851116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.50737463126845</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5632296453695744</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8250737463126843</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.813903708650332</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.10619469026548</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3508019911571561</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8610619469026549</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8613797371564216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.3362831858407</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3888951650199791</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.843362831858407</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8409341231003978</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.6283185840708</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4899455276870867</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.836283185840708</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8359522112780999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.59882005899705</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6154072638096599</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8359882005899705</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8330455191063741</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.14783864912326</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.495790598054494</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8014783864912326</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7986822913422976</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.13274336283186</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.176569968430825</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9513274336283185</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9510077206770546</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>95.57522123893804</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1218370362251032</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9557522123893806</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9561868700456314</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.71681415929204</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1856264838735418</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9371681415929203</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9351012749290633</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.60737549632782</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3739681940044042</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8660737549632782</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8638917786459196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.86430678466077</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4149784385847549</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8386430678466077</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8351916137935176</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>81.15044247787611</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.466166089339337</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8115044247787611</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8043260773077092</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.78761061946902</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3015450180430586</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8778761061946903</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8770466515701438</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.96755162241888</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3573067141322099</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8896755162241888</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.887392557523506</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.18670576735093</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.497432319171882</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8318670576735092</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8213630858022963</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.99115044247787</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4304862348731452</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8699115044247787</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8630290592698759</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.97050147492625</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6946194236632437</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7997050147492626</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7868018390356525</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.53982300884955</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4457941484016676</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8353982300884957</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8309214817048716</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.60766961651917</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4045150388342639</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8660766961651918</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8568733967841092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.33038348082596</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4592847562317426</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8233038348082596</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8250131953147533</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>80.64896755162242</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5333715494566907</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8064896755162241</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8096796441970749</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.5103244837758</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4439228880141551</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.835103244837758</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8330815557903296</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.84105398835631</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1558833221924336</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9584105398835631</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9584070896087669</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>94.42477876106196</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1405542830480651</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9442477876106194</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9447153600692355</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.78031816884229</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1319723210210214</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9478031816884229</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9473928601757076</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>86.24010588326888</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3918555030005114</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8624010588326887</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8587490311965034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.63421828908555</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.342683584386638</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8563421828908554</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.856383785220643</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.14749262536873</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4476586400453623</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8014749262536874</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7969571478246078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.35117950847325</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3427535051790377</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8635117950847325</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8612395566890557</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>93.33333333333334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.193044358497112</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9335122658647317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.71681415929204</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5261920348648952</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8371681415929203</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8266399879156092</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.05604719764013</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3146177198175186</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8905604719764012</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.888598337918831</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.71403731866192</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4733654776277642</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8271403731866191</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8284684444101005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>83.84345885345029</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4092145245871507</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8384345885345029</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8363689682619778</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>86.4896755162242</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3541084463397662</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.864896755162242</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8618088406217229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.89380530973452</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4539608217717614</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8389380530973451</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8387006791941725</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>84.18896357234925</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5872388969718789</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8418896357234924</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8383850491058749</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.00589970501474</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5099014455685392</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8200589970501475</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8090065947039283</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.78466076696165</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1221260717053762</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9678466076696164</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9676595102653771</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.10619469026548</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1050891836383623</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9610619469026549</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9614641438723387</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.04147094698051</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1651263771568968</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.940414709469805</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9389055834910593</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.2204834528557</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3564720725438706</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8722048345285569</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8696065930240022</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>82.59604321836694</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4593229983157168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8259604321836693</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8247653534426803</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>73.49501293263782</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6782087293763955</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7349501293263783</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.723446379961929</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>86.34218289085547</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3519042780584035</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8634218289085546</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8599761129411423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.24289137449287</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3089333960820416</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8824289137449286</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8814590855715654</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>81.77008451630203</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5212536724029633</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8177008451630204</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.805619257077781</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>86.49036756373326</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4372298620000947</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8649036756373325</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8569528136781539</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.06801961954689</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7787788255140186</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7306801961954689</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7288474064564374</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.41887905604719</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4383930043627818</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.824188790560472</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8218530392997181</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>83.24501076998936</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4221863031387329</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8324501076998937</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8276972175681347</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>82.24188790560473</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4870794537477195</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8224188790560472</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.818544246056318</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.67551622418878</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5721138943297167</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7967551622418879</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7974827956260517</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>79.85268038650852</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4928653427710136</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7985268038650853</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7971232661740916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.84070796460176</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1400751085071534</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9584070796460177</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9583591592103581</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>93.74631268436579</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.176036906025062</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9374631268436578</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9379446070631433</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>91.33521916279554</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2509560169574494</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9133521916279552</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9104724026762894</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>84.02405441800246</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4343558527726176</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8402405441800248</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8367028761869195</v>
       </c>
     </row>
   </sheetData>
@@ -6039,6 +12360,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>85.69321533923303</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3505313356232364</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8569321533923304</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8547504711777625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>80.8259587020649</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4604724737893169</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8082595870206489</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7954038432277944</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>88.14159292035399</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2880092046378801</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8814159292035398</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8808241805178172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.9203539823009</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2059748188568544</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.929203539823009</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.928888626853612</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>82.12389380530973</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5729265551034284</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8212389380530973</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8037784551055134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>89.02654867256636</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3431360696209594</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8902654867256636</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8847739092384883</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>82.2762307632419</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5347060069597015</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8227623076324189</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8191423022882398</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.3716814159292</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3444142022752203</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8637168141592919</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8648401531565814</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.61061946902655</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3231608178311338</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8761061946902655</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8731624462065802</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.77581120943952</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4957483332114255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8377581120943953</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8385526538426538</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>83.98247389683301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6037699069362134</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8398247389683302</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8305691259932333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>82.35988200589971</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4460496259232362</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.823598820058997</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.820901193858448</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.34218289085545</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.135028357558258</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9634218289085545</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9632584966892498</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.72459104317511</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2150368390284711</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9272459104317511</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9251399927307723</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.71976401179941</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1465632508938143</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.947197640117994</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9465943843633609</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.2596533418686</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3643685198832766</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8725965334186857</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8687053490166737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83.5103244837758</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4318006606384491</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.835103244837758</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8325236353790793</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.12389380530973</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4524803515640087</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8212389380530973</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8203642734802614</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84.57227138643069</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3936057857858638</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8457227138643069</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8464553200651513</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>89.82335487331206</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2938387453444496</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8982335487331206</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8977825563650585</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>83.95297537175927</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5144564100288941</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8395297537175928</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8282939283819315</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>85.36873156342183</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4817081448389217</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8536873156342184</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8448307330673879</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.48082595870207</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7747205926105381</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7348082595870207</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7344803566632681</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.00589970501474</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4692303904875492</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8200589970501475</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8157985504254744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>84.42495177293921</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3802448460327772</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8442495177293921</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.838123848266396</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>83.53982300884955</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.439542321843328</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8353982300884957</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8298448353963208</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>79.67568923606606</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5323814887243012</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7967568923606605</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7995048491024601</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>80.97345132743362</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4632130263528477</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8097345132743363</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8059824917961917</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.78171091445428</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1212541169511193</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9578171091445429</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9580302061881387</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.98488741252086</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1864709808219535</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9298488741252087</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.929577226160305</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.45426863554182</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2013231609352563</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9345426863554183</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9317213751620399</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>85.04487063036878</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4090847348640173</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8504487063036879</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8475542790599644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86.57817109144543</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.3458038737842192</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8657817109144542</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8643683646458669</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>83.74631268436579</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3822047922061756</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8374631268436579</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8357735660971398</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>87.61061946902655</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3188364354001048</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8761061946902654</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8737209418948421</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>92.77286135693215</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1881618928196379</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9277286135693215</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9261354608047434</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>86.84365781710915</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4130881750703945</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8684365781710914</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8637587669892592</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>90.64896755162242</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2899701847248556</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9064896755162242</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9037368867132735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>83.83515428334155</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4682155955233611</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8383515428334155</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.835442704113416</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>86.07669616519175</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3525018291004623</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8607669616519175</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.859391063191541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>85.6637168141593</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3712030875923422</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.856637168141593</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8570284268608607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>84.83793112397166</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5407205174890501</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8483793112397165</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8397028511071177</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>85.60471976401179</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5865941458789166</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8560471976401181</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8486418512114108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.5103244837758</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4282309300615452</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.835103244837758</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8348509123774359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>96.4896755162242</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1288439814456069</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9648967551622419</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9647730507797835</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>96.28318584070796</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1086232516294937</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9628318584070797</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9633058782334463</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>94.42477876106196</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1428625710142417</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9442477876106194</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.942853745881934</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>88.32845151486318</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3377240842493606</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8832845151486315</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8808989647268047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
